--- a/Base/Teams/Texans/Players Yards Data.xlsx
+++ b/Base/Teams/Texans/Players Yards Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="21">
   <si>
     <t>T.Taylor</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t>S.Phillips</t>
+  </si>
+  <si>
+    <t>R.Freeman</t>
+  </si>
+  <si>
+    <t>J.Samuels</t>
   </si>
   <si>
     <t>B.Cooks</t>
@@ -429,13 +435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,61 +493,73 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -551,13 +569,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,61 +627,73 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Texans/Players Yards Data.xlsx
+++ b/Base/Teams/Texans/Players Yards Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
   <si>
     <t>T.Taylor</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>C.Moore</t>
+  </si>
+  <si>
+    <t>D.Davis</t>
+  </si>
+  <si>
+    <t>P.Dorsett</t>
   </si>
   <si>
     <t>J.Akins</t>
@@ -435,13 +441,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,67 +505,79 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T2" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -569,13 +587,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,67 +651,79 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T2" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Texans/Players Yards Data.xlsx
+++ b/Base/Teams/Texans/Players Yards Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
   <si>
     <t>T.Taylor</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>J.Samuels</t>
+  </si>
+  <si>
+    <t>T.Smith</t>
   </si>
   <si>
     <t>B.Cooks</t>
@@ -441,13 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,73 +514,79 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -587,13 +596,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,73 +666,79 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Texans/Players Yards Data.xlsx
+++ b/Base/Teams/Texans/Players Yards Data.xlsx
@@ -17,10 +17,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
   <si>
+    <t>D.Mills</t>
+  </si>
+  <si>
     <t>T.Taylor</t>
-  </si>
-  <si>
-    <t>D.Mills</t>
   </si>
   <si>
     <t>D.Watson</t>
